--- a/biology/Histoire de la zoologie et de la botanique/Henry_Hurd_Swinnerton/Henry_Hurd_Swinnerton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Hurd_Swinnerton/Henry_Hurd_Swinnerton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Hurd Swinnerton est un géologue et un paléontologue britannique, né en 1875 et mort en 1966.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de géologie à l’université de Nottingham de 1910 à 1946. Dans les années 1930, Swinnerton est membre du Fenland Research Committee, qui étudie la géomorphologie de la côte du Lincolnshire. En 1942, il reçoit la médaille Murchison attribuée par la Société géologique de Londres.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1910 : Nottinghamshire, Cambridge County Geographies.
 1912 : The palmistry of the rocks. Rep Trans Notts Nat Soc; 60: 65-68.
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 8 mars 2008).</t>
         </is>
